--- a/nuon/instagram_posts_moomooz_kr.xlsx
+++ b/nuon/instagram_posts_moomooz_kr.xlsx
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
